--- a/MiscInfo.xlsx
+++ b/MiscInfo.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="880">
   <si>
     <t>Pool Melee = Pool Melee 2</t>
   </si>
@@ -743,6 +743,9 @@
     <t>ui_firearms_hero_rifle_fullauto_heavy_su_001_skin08_name</t>
   </si>
   <si>
+    <t>2f6eec38-45ea-49df-83a2-0b98a858e60a</t>
+  </si>
+  <si>
     <t>ui_firearms_hero_rifle_fullauto_base_name</t>
   </si>
   <si>
@@ -1130,6 +1133,9 @@
     <t>firearms_hero_shotgun_semiauto_bartoli_12g_sawedoff_name</t>
   </si>
   <si>
+    <t>b58f4e9f-60b1-4bcb-bd87-b11dbcb8e6b2</t>
+  </si>
+  <si>
     <t>firearms_hero_shotgun_sawedoff_gluttony_name</t>
   </si>
   <si>
@@ -1239,6 +1245,9 @@
   </si>
   <si>
     <t>firearms_hero_smg_ica_raptor_covert_s3_name</t>
+  </si>
+  <si>
+    <t>8a30c788-049a-4b83-b148-1a6db49d2ae5</t>
   </si>
   <si>
     <t>firearms_hero_smg_raptor_covert_rude_ruby_name</t>
@@ -5829,7 +5838,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AD277"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -5837,7 +5846,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A90" sqref="$A90:$XFD90"/>
+      <selection pane="bottomRight" activeCell="P90" sqref="P90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -5935,7 +5944,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" hidden="1" spans="1:30">
       <c r="A2" s="8" t="s">
         <v>199</v>
       </c>
@@ -5989,7 +5998,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" hidden="1" spans="1:30">
       <c r="A3" s="3" t="s">
         <v>203</v>
       </c>
@@ -6043,7 +6052,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" hidden="1" spans="1:30">
       <c r="A4" s="3" t="s">
         <v>206</v>
       </c>
@@ -6097,7 +6106,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" hidden="1" spans="1:18">
       <c r="A5" s="8" t="s">
         <v>209</v>
       </c>
@@ -6145,7 +6154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" hidden="1" spans="1:18">
       <c r="A6" s="3" t="s">
         <v>211</v>
       </c>
@@ -6193,7 +6202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" hidden="1" spans="1:18">
       <c r="A7" s="3" t="s">
         <v>213</v>
       </c>
@@ -6241,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" hidden="1" spans="1:18">
       <c r="A8" s="8" t="s">
         <v>215</v>
       </c>
@@ -6289,7 +6298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" hidden="1" spans="1:18">
       <c r="A9" s="3" t="s">
         <v>218</v>
       </c>
@@ -6337,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" hidden="1" spans="1:18">
       <c r="A10" s="3" t="s">
         <v>220</v>
       </c>
@@ -6385,7 +6394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" hidden="1" spans="1:19">
       <c r="A11" s="9" t="s">
         <v>222</v>
       </c>
@@ -6442,7 +6451,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" hidden="1" spans="1:18">
       <c r="A12" s="3" t="s">
         <v>229</v>
       </c>
@@ -6488,7 +6497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" hidden="1" spans="1:18">
       <c r="A13" s="3" t="s">
         <v>231</v>
       </c>
@@ -6538,7 +6547,9 @@
       <c r="A14" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>234</v>
+      </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
@@ -6577,17 +6588,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" hidden="1" spans="1:18">
       <c r="A15" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F15" s="7">
         <v>4800</v>
@@ -6625,15 +6636,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" hidden="1" spans="1:18">
       <c r="A16" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F16" s="7">
         <v>12300</v>
@@ -6671,15 +6682,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" hidden="1" spans="1:18">
       <c r="A17" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7">
         <v>13300</v>
@@ -6717,15 +6728,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" hidden="1" spans="1:18">
       <c r="A18" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F18" s="7">
         <v>14500</v>
@@ -6763,15 +6774,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" hidden="1" spans="1:18">
       <c r="A19" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F19" s="7">
         <v>15000</v>
@@ -6809,15 +6820,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" hidden="1" spans="1:18">
       <c r="A20" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F20" s="7">
         <v>16100</v>
@@ -6855,17 +6866,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" hidden="1" spans="1:18">
       <c r="A21" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F21" s="7">
         <v>2000</v>
@@ -6903,17 +6914,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" hidden="1" spans="1:18">
       <c r="A22" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F22" s="7">
         <v>2500</v>
@@ -6951,15 +6962,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" hidden="1" spans="1:18">
       <c r="A23" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F23" s="7">
         <v>2700</v>
@@ -6997,15 +7008,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" hidden="1" spans="1:18">
       <c r="A24" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F24" s="7">
         <v>3200</v>
@@ -7043,15 +7054,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" hidden="1" spans="1:18">
       <c r="A25" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F25" s="7">
         <v>3500</v>
@@ -7089,17 +7100,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" hidden="1" spans="1:18">
       <c r="A26" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F26" s="7">
         <v>4100</v>
@@ -7137,15 +7148,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" hidden="1" spans="1:18">
       <c r="A27" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F27" s="7">
         <v>5400</v>
@@ -7183,15 +7194,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" hidden="1" spans="1:18">
       <c r="A28" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F28" s="7">
         <v>9500</v>
@@ -7229,15 +7240,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" hidden="1" spans="1:18">
       <c r="A29" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F29" s="7">
         <v>7000</v>
@@ -7275,15 +7286,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" hidden="1" spans="1:18">
       <c r="A30" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F30" s="7">
         <v>8500</v>
@@ -7321,15 +7332,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" hidden="1" spans="1:18">
       <c r="A31" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F31" s="7">
         <v>13200</v>
@@ -7367,15 +7378,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" hidden="1" spans="1:18">
       <c r="A32" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F32" s="7">
         <v>13000</v>
@@ -7413,15 +7424,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" hidden="1" spans="1:18">
       <c r="A33" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F33" s="7">
         <v>20000</v>
@@ -7459,21 +7470,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" hidden="1" spans="1:19">
       <c r="A34" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G34" s="3">
         <v>23000</v>
@@ -7513,17 +7524,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" hidden="1" spans="1:18">
       <c r="A35" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F35" s="7">
         <v>7200</v>
@@ -7561,15 +7572,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" hidden="1" spans="1:18">
       <c r="A36" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F36" s="7">
         <v>6000</v>
@@ -7607,15 +7618,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" hidden="1" spans="1:18">
       <c r="A37" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F37" s="7">
         <v>12700</v>
@@ -7653,15 +7664,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" hidden="1" spans="1:18">
       <c r="A38" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F38" s="7">
         <v>14700</v>
@@ -7699,15 +7710,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" hidden="1" spans="1:18">
       <c r="A39" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F39" s="7">
         <v>9200</v>
@@ -7745,15 +7756,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" hidden="1" spans="1:18">
       <c r="A40" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F40" s="7">
         <v>9900</v>
@@ -7791,15 +7802,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" hidden="1" spans="1:18">
       <c r="A41" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F41" s="7">
         <v>10300</v>
@@ -7837,21 +7848,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" hidden="1" spans="1:19">
       <c r="A42" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G42" s="7">
         <v>12000</v>
@@ -7891,21 +7902,21 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" hidden="1" spans="1:19">
       <c r="A43" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G43" s="3">
         <v>9300</v>
@@ -7945,15 +7956,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" hidden="1" spans="1:18">
       <c r="A44" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F44" s="7">
         <v>11700</v>
@@ -7991,15 +8002,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" hidden="1" spans="1:18">
       <c r="A45" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F45" s="7">
         <v>14100</v>
@@ -8037,15 +8048,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" hidden="1" spans="1:18">
       <c r="A46" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F46" s="7">
         <v>15300</v>
@@ -8083,15 +8094,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" hidden="1" spans="1:18">
       <c r="A47" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F47" s="7">
         <v>4700</v>
@@ -8129,15 +8140,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" hidden="1" spans="1:18">
       <c r="A48" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F48" s="7">
         <v>8800</v>
@@ -8175,15 +8186,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" hidden="1" spans="1:20">
       <c r="A49" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F49" s="7">
         <v>12000</v>
@@ -8221,20 +8232,20 @@
         <v>0</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="50" hidden="1" spans="1:18">
       <c r="A50" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F50" s="7">
         <v>12500</v>
@@ -8272,21 +8283,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" hidden="1" spans="1:19">
       <c r="A51" s="9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G51" s="3">
         <v>15000</v>
@@ -8323,21 +8334,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" hidden="1" spans="1:19">
       <c r="A52" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G52" s="3">
         <v>15000</v>
@@ -8374,21 +8385,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" hidden="1" spans="1:19">
       <c r="A53" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G53" s="3">
         <v>15000</v>
@@ -8425,15 +8436,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" hidden="1" spans="1:18">
       <c r="A54" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F54" s="7">
         <v>17900</v>
@@ -8471,15 +8482,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" hidden="1" spans="1:18">
       <c r="A55" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F55" s="7">
         <v>18400</v>
@@ -8517,15 +8528,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" hidden="1" spans="1:18">
       <c r="A56" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F56" s="7">
         <v>18700</v>
@@ -8563,21 +8574,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" hidden="1" spans="1:19">
       <c r="A57" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G57" s="3">
         <v>1200</v>
@@ -8617,15 +8628,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" hidden="1" spans="1:18">
       <c r="A58" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F58" s="7">
         <v>20700</v>
@@ -8663,15 +8674,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" hidden="1" spans="1:18">
       <c r="A59" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F59" s="7">
         <v>24700</v>
@@ -8709,17 +8720,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" hidden="1" spans="1:18">
       <c r="A60" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F60" s="7">
         <v>27900</v>
@@ -8757,21 +8768,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" hidden="1" spans="1:20">
       <c r="A61" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G61" s="7">
         <v>27900</v>
@@ -8811,24 +8822,24 @@
         <v>38</v>
       </c>
       <c r="T61" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="62" hidden="1" spans="1:19">
       <c r="A62" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G62" s="3">
         <v>29000</v>
@@ -8868,17 +8879,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" hidden="1" spans="1:18">
       <c r="A63" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F63" s="7">
         <v>37000</v>
@@ -8918,17 +8929,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" hidden="1" spans="1:18">
       <c r="A64" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F64" s="7">
         <v>40000</v>
@@ -8968,21 +8979,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" hidden="1" spans="1:19">
       <c r="A65" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G65" s="3">
         <v>21900</v>
@@ -9025,21 +9036,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" hidden="1" spans="1:19">
       <c r="A66" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G66" s="3">
         <v>22300</v>
@@ -9082,15 +9093,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" hidden="1" spans="1:18">
       <c r="A67" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F67" s="7">
         <v>3200</v>
@@ -9128,15 +9139,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" hidden="1" spans="1:18">
       <c r="A68" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F68" s="7">
         <v>8900</v>
@@ -9174,15 +9185,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" hidden="1" spans="1:18">
       <c r="A69" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F69" s="7">
         <v>3000</v>
@@ -9220,15 +9231,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" hidden="1" spans="1:18">
       <c r="A70" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F70" s="7">
         <v>4000</v>
@@ -9266,15 +9277,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" hidden="1" spans="1:18">
       <c r="A71" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F71" s="7">
         <v>5600</v>
@@ -9312,15 +9323,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" hidden="1" spans="1:18">
       <c r="A72" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F72" s="7">
         <v>10200</v>
@@ -9358,21 +9369,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" hidden="1" spans="1:19">
       <c r="A73" s="9" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G73" s="3">
         <v>11100</v>
@@ -9415,15 +9426,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" hidden="1" spans="1:18">
       <c r="A74" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F74" s="7">
         <v>3500</v>
@@ -9461,17 +9472,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" hidden="1" spans="1:18">
       <c r="A75" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F75" s="7">
         <v>5800</v>
@@ -9509,15 +9520,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" hidden="1" spans="1:18">
       <c r="A76" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F76" s="7">
         <v>7500</v>
@@ -9555,15 +9566,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" hidden="1" spans="1:18">
       <c r="A77" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F77" s="7">
         <v>4900</v>
@@ -9603,13 +9614,15 @@
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B78" s="7"/>
+        <v>363</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>364</v>
+      </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F78" s="7">
         <v>8900</v>
@@ -9637,6 +9650,9 @@
       <c r="N78" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="P78" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="Q78" s="5" t="b">
         <v>1</v>
       </c>
@@ -9644,21 +9660,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:19">
+    <row r="79" hidden="1" spans="1:19">
       <c r="A79" s="9" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G79" s="3">
         <v>13500</v>
@@ -9701,15 +9717,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" hidden="1" spans="1:18">
       <c r="A80" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F80" s="7">
         <v>21200</v>
@@ -9747,15 +9763,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" hidden="1" spans="1:18">
       <c r="A81" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F81" s="7">
         <v>9800</v>
@@ -9793,15 +9809,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" hidden="1" spans="1:18">
       <c r="A82" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F82" s="7">
         <v>11600</v>
@@ -9839,15 +9855,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" hidden="1" spans="1:18">
       <c r="A83" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F83" s="7">
         <v>12300</v>
@@ -9885,15 +9901,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" hidden="1" spans="1:18">
       <c r="A84" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F84" s="7">
         <v>17100</v>
@@ -9931,17 +9947,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" hidden="1" spans="1:18">
       <c r="A85" s="8" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F85" s="7">
         <v>3500</v>
@@ -9979,15 +9995,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" hidden="1" spans="1:18">
       <c r="A86" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F86" s="7">
         <v>3800</v>
@@ -10025,21 +10041,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:19">
+    <row r="87" hidden="1" spans="1:19">
       <c r="A87" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E87" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="G87" s="3">
         <v>4800</v>
@@ -10076,15 +10092,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" hidden="1" spans="1:18">
       <c r="A88" s="3" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F88" s="7">
         <v>24600</v>
@@ -10122,17 +10138,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" hidden="1" spans="1:18">
       <c r="A89" s="8" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F89" s="7">
         <v>4300</v>
@@ -10172,15 +10188,15 @@
     </row>
     <row r="90" spans="1:18">
       <c r="A90" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F90" s="7">
         <v>5500</v>
@@ -10208,6 +10224,9 @@
       <c r="N90" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="P90" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="Q90" s="5" t="b">
         <v>0</v>
       </c>
@@ -10215,15 +10234,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" hidden="1" spans="1:18">
       <c r="A91" s="3" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F91" s="7">
         <v>6100</v>
@@ -10261,15 +10280,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" hidden="1" spans="1:18">
       <c r="A92" s="3" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F92" s="7">
         <v>10000</v>
@@ -10307,15 +10326,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" hidden="1" spans="1:18">
       <c r="A93" s="3" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F93" s="7">
         <v>11000</v>
@@ -10353,15 +10372,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" hidden="1" spans="1:18">
       <c r="A94" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F94" s="7">
         <v>11200</v>
@@ -10399,15 +10418,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" hidden="1" spans="1:18">
       <c r="A95" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F95" s="7">
         <v>10700</v>
@@ -10447,13 +10466,15 @@
     </row>
     <row r="96" spans="1:18">
       <c r="A96" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="B96" s="7"/>
+        <v>401</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>402</v>
+      </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F96" s="7">
         <v>13300</v>
@@ -10488,21 +10509,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" hidden="1" spans="1:19">
       <c r="A97" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="E97" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="G97" s="3">
         <v>14200</v>
@@ -10542,15 +10563,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" hidden="1" spans="1:18">
       <c r="A98" s="3" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F98" s="7">
         <v>10400</v>
@@ -10588,21 +10609,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" hidden="1" spans="1:19">
       <c r="A99" s="9" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C99" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="E99" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="G99" s="7">
         <v>22200</v>
@@ -10645,15 +10666,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" hidden="1" spans="1:18">
       <c r="A100" s="3" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F100" s="7">
         <v>37500</v>
@@ -10691,17 +10712,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" hidden="1" spans="1:18">
       <c r="A101" s="8" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F101" s="7">
         <v>11500</v>
@@ -10739,15 +10760,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" hidden="1" spans="1:18">
       <c r="A102" s="3" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F102" s="7">
         <v>11900</v>
@@ -10785,21 +10806,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" hidden="1" spans="1:19">
       <c r="A103" s="9" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B103" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="E103" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="G103" s="3">
         <v>12000</v>
@@ -10842,15 +10863,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" hidden="1" spans="1:18">
       <c r="A104" s="3" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F104" s="7">
         <v>10100</v>
@@ -10888,15 +10909,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" hidden="1" spans="1:18">
       <c r="A105" s="3" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
       <c r="E105" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F105" s="7">
         <v>14500</v>
@@ -10934,15 +10955,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" hidden="1" spans="1:18">
       <c r="A106" s="3" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F106" s="7">
         <v>4200</v>
@@ -10980,17 +11001,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" hidden="1" spans="1:18">
       <c r="A107" s="8" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
       <c r="E107" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F107" s="7">
         <v>5000</v>
@@ -11028,15 +11049,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" hidden="1" spans="1:18">
       <c r="A108" s="3" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F108" s="7">
         <v>7200</v>
@@ -11074,15 +11095,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" hidden="1" spans="1:18">
       <c r="A109" s="3" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F109" s="7">
         <v>10200</v>
@@ -11120,15 +11141,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" hidden="1" spans="1:18">
       <c r="A110" s="3" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="F110" s="7">
         <v>9700</v>
@@ -11166,15 +11187,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" hidden="1" spans="1:18">
       <c r="A111" s="3" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
       <c r="E111" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F111" s="7">
         <v>8100</v>
@@ -11212,15 +11233,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" hidden="1" spans="1:18">
       <c r="A112" s="3" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="F112" s="7">
         <v>12000</v>
@@ -11258,15 +11279,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" hidden="1" spans="1:18">
       <c r="A113" s="3" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
       <c r="E113" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F113" s="7">
         <v>6500</v>
@@ -11304,15 +11325,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" hidden="1" spans="1:18">
       <c r="A114" s="3" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
       <c r="E114" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F114" s="7">
         <v>13400</v>
@@ -11350,21 +11371,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" hidden="1" spans="1:19">
       <c r="A115" s="9" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="G115" s="3">
         <v>23400</v>
@@ -11404,15 +11425,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" hidden="1" spans="1:18">
       <c r="A116" s="3" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="F116" s="7">
         <v>18200</v>
@@ -11450,21 +11471,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" hidden="1" spans="1:19">
       <c r="A117" s="9" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C117" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E117" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="G117" s="3">
         <v>19800</v>
@@ -11504,21 +11525,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" hidden="1" spans="1:19">
       <c r="A118" s="9" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="G118" s="3">
         <v>21000</v>
@@ -11561,15 +11582,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" hidden="1" spans="1:18">
       <c r="A119" s="3" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
       <c r="E119" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="F119" s="7">
         <v>38900</v>
@@ -11607,15 +11628,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120" hidden="1" spans="1:18">
       <c r="A120" s="3" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
       <c r="E120" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="F120" s="7">
         <v>17400</v>
@@ -11653,21 +11674,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" hidden="1" spans="1:19">
       <c r="A121" s="9" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C121" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="E121" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>455</v>
       </c>
       <c r="G121" s="3">
         <v>20200</v>
@@ -11710,15 +11731,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" hidden="1" spans="1:18">
       <c r="A122" s="3" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
       <c r="E122" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="F122" s="7">
         <v>39200</v>
@@ -11756,15 +11777,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123" hidden="1" spans="1:18">
       <c r="A123" s="3" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
       <c r="E123" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F123" s="7">
         <v>14700</v>
@@ -11802,15 +11823,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:18">
+    <row r="124" hidden="1" spans="1:18">
       <c r="A124" s="3" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
       <c r="E124" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F124" s="7">
         <v>15600</v>
@@ -11848,15 +11869,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" hidden="1" spans="1:18">
       <c r="A125" s="3" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
       <c r="E125" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F125" s="7">
         <v>16100</v>
@@ -11894,21 +11915,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" hidden="1" spans="1:19">
       <c r="A126" s="9" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="G126" s="3">
         <v>23100</v>
@@ -11948,21 +11969,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" hidden="1" spans="1:19">
       <c r="A127" s="9" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C127" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="E127" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="G127" s="3">
         <v>25000</v>
@@ -12002,15 +12023,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" hidden="1" spans="1:18">
       <c r="A128" s="3" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
       <c r="E128" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="F128" s="7">
         <v>35400</v>
@@ -12048,21 +12069,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" hidden="1" spans="1:19">
       <c r="A129" s="9" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C129" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="E129" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="G129" s="7">
         <v>37100</v>
@@ -12102,21 +12123,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" hidden="1" spans="1:19">
       <c r="A130" s="9" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="G130" s="3">
         <v>9900</v>
@@ -12159,15 +12180,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="131" spans="1:18">
+    <row r="131" hidden="1" spans="1:18">
       <c r="A131" s="3" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
       <c r="E131" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="F131" s="7">
         <v>36800</v>
@@ -12205,15 +12226,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:18">
+    <row r="132" hidden="1" spans="1:18">
       <c r="A132" s="3" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
       <c r="E132" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="F132" s="7">
         <v>36900</v>
@@ -12251,15 +12272,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:18">
+    <row r="133" hidden="1" spans="1:18">
       <c r="A133" s="3" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
       <c r="E133" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="F133" s="7">
         <v>39500</v>
@@ -12297,21 +12318,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" hidden="1" spans="1:19">
       <c r="A134" s="9" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="G134" s="7">
         <v>40404</v>
@@ -12351,21 +12372,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" hidden="1" spans="1:19">
       <c r="A135" s="9" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G135" s="3">
         <v>66666</v>
@@ -12405,21 +12426,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" hidden="1" spans="1:19">
       <c r="A136" s="9" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="G136" s="3">
         <v>2600</v>
@@ -12462,15 +12483,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="137" spans="1:18">
+    <row r="137" hidden="1" spans="1:18">
       <c r="A137" s="3" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
       <c r="E137" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="F137" s="7">
         <v>5200</v>
@@ -12508,21 +12529,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" hidden="1" spans="1:19">
       <c r="A138" s="9" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B138" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="E138" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="E138" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="G138" s="3">
         <v>6300</v>
@@ -12550,7 +12571,7 @@
         <v>1</v>
       </c>
       <c r="O138" s="3" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="P138" s="4" t="b">
         <v>0</v>
@@ -12562,15 +12583,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="1:18">
+    <row r="139" hidden="1" spans="1:18">
       <c r="A139" s="3" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
       <c r="E139" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="F139" s="7">
         <v>10000</v>
@@ -12608,21 +12629,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" hidden="1" spans="1:19">
       <c r="A140" s="9" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="G140" s="3">
         <v>15000</v>
@@ -12662,21 +12683,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" hidden="1" spans="1:19">
       <c r="A141" s="9" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="G141" s="3">
         <v>114514</v>
@@ -12710,24 +12731,24 @@
         <v>0</v>
       </c>
       <c r="S141" s="7" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="142" spans="1:19">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="142" hidden="1" spans="1:19">
       <c r="A142" s="9" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G142" s="3">
         <v>2024</v>
@@ -12764,15 +12785,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:18">
+    <row r="143" hidden="1" spans="1:18">
       <c r="A143" s="3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
       <c r="E143" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="F143" s="7">
         <v>4400</v>
@@ -12810,21 +12831,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" hidden="1" spans="1:19">
       <c r="A144" s="9" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B144" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="E144" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="E144" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="G144" s="3">
         <v>9400</v>
@@ -12861,15 +12882,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:18">
+    <row r="145" hidden="1" spans="1:18">
       <c r="A145" s="3" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
       <c r="E145" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="F145" s="7">
         <v>12100</v>
@@ -12907,21 +12928,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" hidden="1" spans="1:19">
       <c r="A146" s="9" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G146" s="3">
         <v>13300</v>
@@ -12961,15 +12982,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="147" spans="1:18">
+    <row r="147" hidden="1" spans="1:18">
       <c r="A147" s="3" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="F147" s="7">
         <v>14400</v>
@@ -13007,15 +13028,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:18">
+    <row r="148" hidden="1" spans="1:18">
       <c r="A148" s="3" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
       <c r="E148" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="F148" s="7">
         <v>9000</v>
@@ -13053,15 +13074,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:18">
+    <row r="149" hidden="1" spans="1:18">
       <c r="A149" s="3" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
       <c r="E149" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="F149" s="7">
         <v>14000</v>
@@ -13099,21 +13120,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:20">
+    <row r="150" hidden="1" spans="1:20">
       <c r="A150" s="9" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B150" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="E150" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="D150" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="E150" s="7" t="s">
-        <v>535</v>
       </c>
       <c r="G150" s="3">
         <v>16400</v>
@@ -13150,24 +13171,24 @@
         <v>33</v>
       </c>
       <c r="T150" s="3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="151" spans="1:20">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="151" hidden="1" spans="1:20">
       <c r="A151" s="9" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="G151" s="3">
         <v>21200</v>
@@ -13207,24 +13228,24 @@
         <v>34</v>
       </c>
       <c r="T151" s="3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="152" spans="1:20">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="152" hidden="1" spans="1:20">
       <c r="A152" s="9" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="G152" s="3">
         <v>3400</v>
@@ -13261,18 +13282,18 @@
         <v>27</v>
       </c>
       <c r="T152" s="3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="153" spans="1:18">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="153" hidden="1" spans="1:18">
       <c r="A153" s="3" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="F153" s="7">
         <v>5000</v>
@@ -13310,21 +13331,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:20">
+    <row r="154" hidden="1" spans="1:20">
       <c r="A154" s="9" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B154" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="E154" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="E154" s="7" t="s">
-        <v>550</v>
       </c>
       <c r="G154" s="3">
         <v>9900</v>
@@ -13364,18 +13385,18 @@
         <v>34</v>
       </c>
       <c r="T154" s="3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="155" hidden="1" spans="1:18">
       <c r="A155" s="3" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="F155" s="7">
         <v>2200</v>
@@ -13413,15 +13434,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:18">
+    <row r="156" hidden="1" spans="1:18">
       <c r="A156" s="3" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="F156" s="7">
         <v>2400</v>
@@ -13459,15 +13480,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:18">
+    <row r="157" hidden="1" spans="1:18">
       <c r="A157" s="3" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="F157" s="7">
         <v>2600</v>
@@ -13505,21 +13526,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:19">
+    <row r="158" hidden="1" spans="1:19">
       <c r="A158" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="E158" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="D158" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="E158" s="7" t="s">
-        <v>557</v>
       </c>
       <c r="G158" s="3">
         <v>3300</v>
@@ -13556,21 +13577,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="159" spans="1:19">
+    <row r="159" hidden="1" spans="1:19">
       <c r="A159" s="9" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="G159" s="3">
         <v>4100</v>
@@ -13610,15 +13631,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="160" spans="1:18">
+    <row r="160" hidden="1" spans="1:18">
       <c r="A160" s="3" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="F160" s="7">
         <v>5200</v>
@@ -13656,21 +13677,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:19">
+    <row r="161" hidden="1" spans="1:19">
       <c r="A161" s="9" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="G161" s="3">
         <v>5700</v>
@@ -13707,15 +13728,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="1:18">
+    <row r="162" hidden="1" spans="1:18">
       <c r="A162" s="3" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="F162" s="7">
         <v>5700</v>
@@ -13753,15 +13774,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:18">
+    <row r="163" hidden="1" spans="1:18">
       <c r="A163" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="F163" s="7">
         <v>8500</v>
@@ -13799,15 +13820,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:18">
+    <row r="164" hidden="1" spans="1:18">
       <c r="A164" s="3" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="F164" s="7">
         <v>11200</v>
@@ -13845,21 +13866,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:20">
+    <row r="165" hidden="1" spans="1:20">
       <c r="A165" s="9" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="G165" s="3">
         <v>12000</v>
@@ -13896,24 +13917,24 @@
         <v>27</v>
       </c>
       <c r="T165" s="3" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="166" spans="1:19">
       <c r="A166" s="9" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="G166" s="3">
         <v>11900</v>
@@ -13940,6 +13961,12 @@
       <c r="N166" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="P166" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q166" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="R166" s="6" t="b">
         <v>0</v>
       </c>
@@ -13947,15 +13974,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" spans="1:18">
+    <row r="167" hidden="1" spans="1:18">
       <c r="A167" s="3" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="F167" s="7">
         <v>10800</v>
@@ -13993,15 +14020,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:18">
+    <row r="168" hidden="1" spans="1:18">
       <c r="A168" s="3" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="F168" s="7">
         <v>11000</v>
@@ -14039,15 +14066,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:18">
+    <row r="169" hidden="1" spans="1:18">
       <c r="A169" s="3" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="F169" s="7">
         <v>11500</v>
@@ -14085,15 +14112,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:18">
+    <row r="170" hidden="1" spans="1:18">
       <c r="A170" s="3" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="F170" s="7">
         <v>13300</v>
@@ -14131,21 +14158,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:19">
+    <row r="171" hidden="1" spans="1:19">
       <c r="A171" s="9" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B171" s="7" t="s">
         <v>179</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="G171" s="3">
         <v>14200</v>
@@ -14182,21 +14209,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="1:19">
+    <row r="172" hidden="1" spans="1:19">
       <c r="A172" s="9" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="G172" s="7">
         <v>15500</v>
@@ -14239,15 +14266,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="173" spans="1:18">
+    <row r="173" hidden="1" spans="1:18">
       <c r="A173" s="3" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="F173" s="7">
         <v>20000</v>
@@ -14285,21 +14312,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:20">
+    <row r="174" hidden="1" spans="1:20">
       <c r="A174" s="9" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="G174" s="3">
         <v>23800</v>
@@ -14339,24 +14366,24 @@
         <v>27</v>
       </c>
       <c r="T174" s="3" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="175" spans="1:19">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="175" hidden="1" spans="1:19">
       <c r="A175" s="9" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="G175" s="7">
         <v>24200</v>
@@ -14399,9 +14426,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="176" spans="1:20">
+    <row r="176" hidden="1" spans="1:20">
       <c r="A176" s="3" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
@@ -14445,21 +14472,21 @@
         <v>1</v>
       </c>
       <c r="T176" s="3" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="177" spans="1:20">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="177" hidden="1" spans="1:20">
       <c r="A177" s="9" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="E177" s="7" t="s">
         <v>130</v>
@@ -14505,12 +14532,12 @@
         <v>32</v>
       </c>
       <c r="T177" s="3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="178" spans="1:18">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="178" hidden="1" spans="1:18">
       <c r="A178" s="3" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
@@ -14554,9 +14581,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:18">
+    <row r="179" hidden="1" spans="1:18">
       <c r="A179" s="3" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
@@ -14600,9 +14627,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:18">
+    <row r="180" hidden="1" spans="1:18">
       <c r="A180" s="3" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
@@ -14646,9 +14673,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:18">
+    <row r="181" hidden="1" spans="1:18">
       <c r="A181" s="3" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
@@ -14692,18 +14719,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:20">
+    <row r="182" hidden="1" spans="1:20">
       <c r="A182" s="9" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="E182" s="7" t="s">
         <v>130</v>
@@ -14746,18 +14773,18 @@
         <v>32</v>
       </c>
       <c r="T182" s="3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="183" spans="1:18">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="183" hidden="1" spans="1:18">
       <c r="A183" s="3" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="F183" s="7">
         <v>2000</v>
@@ -14795,15 +14822,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:18">
+    <row r="184" hidden="1" spans="1:18">
       <c r="A184" s="3" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="F184" s="7">
         <v>7500</v>
@@ -14841,15 +14868,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:18">
+    <row r="185" hidden="1" spans="1:18">
       <c r="A185" s="3" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="F185" s="7">
         <v>8600</v>
@@ -14887,15 +14914,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:18">
+    <row r="186" hidden="1" spans="1:18">
       <c r="A186" s="3" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="F186" s="7">
         <v>10000</v>
@@ -14933,21 +14960,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:20">
+    <row r="187" hidden="1" spans="1:20">
       <c r="A187" s="9" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="G187" s="3">
         <v>12100</v>
@@ -14987,18 +15014,18 @@
         <v>33</v>
       </c>
       <c r="T187" s="3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="188" spans="1:18">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="188" hidden="1" spans="1:18">
       <c r="A188" s="3" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="F188" s="7">
         <v>2000</v>
@@ -15036,21 +15063,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:19">
+    <row r="189" hidden="1" spans="1:19">
       <c r="A189" s="9" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C189" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="E189" s="7" t="s">
         <v>632</v>
-      </c>
-      <c r="D189" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="E189" s="7" t="s">
-        <v>629</v>
       </c>
       <c r="G189" s="3">
         <v>2500</v>
@@ -15087,15 +15114,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="190" spans="1:18">
+    <row r="190" hidden="1" spans="1:18">
       <c r="A190" s="3" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="F190" s="7">
         <v>3000</v>
@@ -15133,21 +15160,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:19">
+    <row r="191" hidden="1" spans="1:19">
       <c r="A191" s="9" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="G191" s="3">
         <v>3100</v>
@@ -15187,21 +15214,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="192" spans="1:19">
+    <row r="192" hidden="1" spans="1:19">
       <c r="A192" s="9" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="G192" s="3">
         <v>4400</v>
@@ -15229,7 +15256,7 @@
         <v>1</v>
       </c>
       <c r="O192" s="3" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="P192" s="4" t="b">
         <v>0</v>
@@ -15241,15 +15268,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="193" spans="1:18">
+    <row r="193" hidden="1" spans="1:18">
       <c r="A193" s="3" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="F193" s="7">
         <v>5500</v>
@@ -15287,15 +15314,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:18">
+    <row r="194" hidden="1" spans="1:18">
       <c r="A194" s="3" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="F194" s="7">
         <v>6300</v>
@@ -15333,21 +15360,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:19">
+    <row r="195" hidden="1" spans="1:19">
       <c r="A195" s="9" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="G195" s="3">
         <v>6450</v>
@@ -15375,7 +15402,7 @@
         <v>1</v>
       </c>
       <c r="O195" s="3" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="P195" s="4" t="b">
         <v>0</v>
@@ -15387,15 +15414,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="196" spans="1:18">
+    <row r="196" hidden="1" spans="1:18">
       <c r="A196" s="3" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="F196" s="7">
         <v>6600</v>
@@ -15433,21 +15460,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:20">
+    <row r="197" hidden="1" spans="1:20">
       <c r="A197" s="9" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="G197" s="3">
         <v>8600</v>
@@ -15487,20 +15514,20 @@
         <v>34</v>
       </c>
       <c r="T197" s="3" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="198" spans="1:20">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="198" hidden="1" spans="1:20">
       <c r="A198" s="8" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="F198" s="7">
         <v>15000</v>
@@ -15538,24 +15565,24 @@
         <v>0</v>
       </c>
       <c r="T198" s="3" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="199" spans="1:20">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="199" hidden="1" spans="1:20">
       <c r="A199" s="9" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="G199" s="3">
         <v>17200</v>
@@ -15595,24 +15622,24 @@
         <v>34</v>
       </c>
       <c r="T199" s="3" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="200" spans="1:19">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="200" hidden="1" spans="1:19">
       <c r="A200" s="9" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="E200" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="G200" s="3">
         <v>32800</v>
@@ -15649,24 +15676,24 @@
         <v>0</v>
       </c>
       <c r="S200" s="7" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="201" spans="1:20">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="201" hidden="1" spans="1:20">
       <c r="A201" s="9" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="E201" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="G201" s="7">
         <v>39999</v>
@@ -15709,24 +15736,24 @@
         <v>39</v>
       </c>
       <c r="T201" s="3" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="202" spans="1:20">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="202" hidden="1" spans="1:20">
       <c r="A202" s="9" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="G202" s="7">
         <v>100000</v>
@@ -15763,24 +15790,24 @@
         <v>39</v>
       </c>
       <c r="T202" s="3" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="203" spans="1:19">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="203" hidden="1" spans="1:19">
       <c r="A203" s="9" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="G203" s="7">
         <v>19800</v>
@@ -15820,17 +15847,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="204" spans="1:18">
+    <row r="204" hidden="1" spans="1:18">
       <c r="A204" s="8" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="F204" s="7">
         <v>30000</v>
@@ -15868,17 +15895,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:18">
+    <row r="205" hidden="1" spans="1:18">
       <c r="A205" s="8" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
       <c r="E205" s="7" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="F205" s="7">
         <v>5000</v>
@@ -15916,21 +15943,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:19">
+    <row r="206" hidden="1" spans="1:19">
       <c r="A206" s="9" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="C206" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="E206" s="7" t="s">
         <v>688</v>
-      </c>
-      <c r="D206" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="E206" s="7" t="s">
-        <v>685</v>
       </c>
       <c r="G206" s="3">
         <v>9999</v>
@@ -15970,21 +15997,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="207" spans="1:19">
+    <row r="207" hidden="1" spans="1:19">
       <c r="A207" s="9" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="G207" s="3">
         <v>999999999</v>
@@ -16026,13 +16053,13 @@
     </row>
     <row r="210" spans="1:14">
       <c r="A210" s="3" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="F210" s="3">
         <v>500</v>
@@ -16062,13 +16089,13 @@
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="3" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="F211" s="3">
         <v>500</v>
@@ -16098,13 +16125,13 @@
     </row>
     <row r="212" spans="1:14">
       <c r="A212" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="E212" s="3" t="s">
         <v>699</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>696</v>
       </c>
       <c r="F212" s="3">
         <v>500</v>
@@ -16134,13 +16161,13 @@
     </row>
     <row r="213" spans="1:14">
       <c r="A213" s="3" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="F213" s="3">
         <v>500</v>
@@ -16170,13 +16197,13 @@
     </row>
     <row r="214" spans="1:14">
       <c r="A214" s="3" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="F214" s="3">
         <v>500</v>
@@ -16206,13 +16233,13 @@
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="3" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="F215" s="3">
         <v>500</v>
@@ -16242,19 +16269,19 @@
     </row>
     <row r="216" spans="1:19">
       <c r="A216" s="9" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="G216" s="3">
         <v>500</v>
@@ -16290,13 +16317,13 @@
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="3" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="F217" s="3">
         <v>500</v>
@@ -16326,13 +16353,13 @@
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="3" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="F218" s="3">
         <v>500</v>
@@ -16362,13 +16389,13 @@
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="E219" s="3" t="s">
         <v>716</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="E219" s="3" t="s">
-        <v>713</v>
       </c>
       <c r="F219" s="3">
         <v>500</v>
@@ -16398,13 +16425,13 @@
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="3" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="F220" s="3">
         <v>500</v>
@@ -16434,13 +16461,13 @@
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="3" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="F221" s="3">
         <v>500</v>
@@ -16470,13 +16497,13 @@
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="3" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="F222" s="3">
         <v>500</v>
@@ -16506,19 +16533,19 @@
     </row>
     <row r="223" spans="1:19">
       <c r="A223" s="9" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="G223" s="7">
         <v>1500</v>
@@ -16554,13 +16581,13 @@
     </row>
     <row r="224" spans="1:14">
       <c r="A224" s="3" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="F224" s="3">
         <v>500</v>
@@ -16590,13 +16617,13 @@
     </row>
     <row r="225" spans="1:14">
       <c r="A225" s="3" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="F225" s="3">
         <v>500</v>
@@ -16626,19 +16653,19 @@
     </row>
     <row r="226" spans="1:19">
       <c r="A226" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="D226" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="E226" s="3" t="s">
         <v>733</v>
-      </c>
-      <c r="B226" s="7" t="s">
-        <v>734</v>
-      </c>
-      <c r="C226" s="7" t="s">
-        <v>735</v>
-      </c>
-      <c r="D226" s="7" t="s">
-        <v>736</v>
-      </c>
-      <c r="E226" s="3" t="s">
-        <v>730</v>
       </c>
       <c r="G226" s="7">
         <v>800</v>
@@ -16674,13 +16701,13 @@
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="3" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="F227" s="3">
         <v>500</v>
@@ -16710,19 +16737,19 @@
     </row>
     <row r="228" spans="1:19">
       <c r="A228" s="9" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="G228" s="7">
         <v>1000</v>
@@ -16758,13 +16785,13 @@
     </row>
     <row r="229" spans="1:14">
       <c r="A229" s="3" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="F229" s="3">
         <v>500</v>
@@ -16794,13 +16821,13 @@
     </row>
     <row r="230" spans="1:14">
       <c r="A230" s="3" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="F230" s="3">
         <v>500</v>
@@ -16830,13 +16857,13 @@
     </row>
     <row r="231" spans="1:14">
       <c r="A231" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="E231" s="3" t="s">
         <v>748</v>
-      </c>
-      <c r="B231" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="E231" s="3" t="s">
-        <v>745</v>
       </c>
       <c r="F231" s="3">
         <v>500</v>
@@ -16866,13 +16893,13 @@
     </row>
     <row r="232" spans="1:14">
       <c r="A232" s="3" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="F232" s="3">
         <v>500</v>
@@ -16902,13 +16929,13 @@
     </row>
     <row r="233" spans="1:14">
       <c r="A233" s="3" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="F233" s="3">
         <v>600</v>
@@ -16938,13 +16965,13 @@
     </row>
     <row r="234" spans="1:14">
       <c r="A234" s="3" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="F234" s="3">
         <v>500</v>
@@ -16974,13 +17001,13 @@
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="3" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="F235" s="3">
         <v>500</v>
@@ -17010,13 +17037,13 @@
     </row>
     <row r="236" spans="1:14">
       <c r="A236" s="3" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="F236" s="3">
         <v>500</v>
@@ -17046,13 +17073,13 @@
     </row>
     <row r="237" spans="1:14">
       <c r="A237" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="E237" s="3" t="s">
         <v>763</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="E237" s="3" t="s">
-        <v>760</v>
       </c>
       <c r="F237" s="3">
         <v>500</v>
@@ -17082,13 +17109,13 @@
     </row>
     <row r="238" spans="1:14">
       <c r="A238" s="3" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="F238" s="3">
         <v>500</v>
@@ -17118,13 +17145,13 @@
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="3" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="F239" s="3">
         <v>500</v>
@@ -17154,13 +17181,13 @@
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="E240" s="3" t="s">
         <v>770</v>
-      </c>
-      <c r="B240" s="3" t="s">
-        <v>771</v>
-      </c>
-      <c r="E240" s="3" t="s">
-        <v>767</v>
       </c>
       <c r="F240" s="3">
         <v>500</v>
@@ -17190,13 +17217,13 @@
     </row>
     <row r="241" spans="1:14">
       <c r="A241" s="3" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="F241" s="3">
         <v>500</v>
@@ -17226,13 +17253,13 @@
     </row>
     <row r="242" spans="1:14">
       <c r="A242" s="3" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="F242" s="3">
         <v>500</v>
@@ -17262,13 +17289,13 @@
     </row>
     <row r="243" spans="1:14">
       <c r="A243" s="3" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="F243" s="3">
         <v>500</v>
@@ -17298,13 +17325,13 @@
     </row>
     <row r="244" spans="1:14">
       <c r="A244" s="3" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="F244" s="3">
         <v>500</v>
@@ -17334,13 +17361,13 @@
     </row>
     <row r="245" spans="1:14">
       <c r="A245" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="E245" s="3" t="s">
         <v>781</v>
-      </c>
-      <c r="B245" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="E245" s="3" t="s">
-        <v>778</v>
       </c>
       <c r="F245" s="3">
         <v>500</v>
@@ -17370,19 +17397,19 @@
     </row>
     <row r="246" spans="1:19">
       <c r="A246" s="9" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="D246" s="7" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="E246" s="7" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="G246" s="7">
         <v>1000</v>
@@ -17418,19 +17445,19 @@
     </row>
     <row r="247" spans="1:19">
       <c r="A247" s="9" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="D247" s="7" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="E247" s="7" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="G247" s="7">
         <v>1000</v>
@@ -17458,7 +17485,7 @@
         <v>1</v>
       </c>
       <c r="O247" s="3" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="S247" s="7" t="s">
         <v>35</v>
@@ -17466,13 +17493,13 @@
     </row>
     <row r="248" spans="1:14">
       <c r="A248" s="3" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="F248" s="3">
         <v>500</v>
@@ -17502,13 +17529,13 @@
     </row>
     <row r="249" spans="1:14">
       <c r="A249" s="3" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="F249" s="3">
         <v>500</v>
@@ -17538,13 +17565,13 @@
     </row>
     <row r="250" spans="1:14">
       <c r="A250" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="E250" s="3" t="s">
         <v>797</v>
-      </c>
-      <c r="B250" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="E250" s="3" t="s">
-        <v>794</v>
       </c>
       <c r="F250" s="3">
         <v>500</v>
@@ -17574,13 +17601,13 @@
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="3" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="F251" s="3">
         <v>500</v>
@@ -17610,13 +17637,13 @@
     </row>
     <row r="252" spans="1:14">
       <c r="A252" s="3" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="F252" s="3">
         <v>500</v>
@@ -17646,13 +17673,13 @@
     </row>
     <row r="253" spans="1:14">
       <c r="A253" s="3" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="F253" s="3">
         <v>500</v>
@@ -17682,13 +17709,13 @@
     </row>
     <row r="254" spans="1:14">
       <c r="A254" s="3" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="F254" s="3">
         <v>500</v>
@@ -17718,19 +17745,19 @@
     </row>
     <row r="255" spans="1:19">
       <c r="A255" s="9" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="D255" s="7" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="E255" s="7" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="G255" s="7">
         <v>1000</v>
@@ -17766,13 +17793,13 @@
     </row>
     <row r="256" spans="1:14">
       <c r="A256" s="3" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="F256" s="3">
         <v>500</v>
@@ -17802,13 +17829,13 @@
     </row>
     <row r="257" spans="1:14">
       <c r="A257" s="3" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="F257" s="3">
         <v>500</v>
@@ -17838,19 +17865,19 @@
     </row>
     <row r="258" spans="1:19">
       <c r="A258" s="9" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="D258" s="7" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="E258" s="7" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="G258" s="7">
         <v>1000</v>
@@ -17878,7 +17905,7 @@
         <v>1</v>
       </c>
       <c r="O258" s="3" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="S258" s="7" t="s">
         <v>35</v>
@@ -17886,13 +17913,13 @@
     </row>
     <row r="259" spans="1:14">
       <c r="A259" s="3" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="F259" s="3">
         <v>500</v>
@@ -17922,13 +17949,13 @@
     </row>
     <row r="260" spans="1:14">
       <c r="A260" s="3" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="F260" s="3">
         <v>500</v>
@@ -17958,13 +17985,13 @@
     </row>
     <row r="261" spans="1:14">
       <c r="A261" s="3" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="F261" s="3">
         <v>500</v>
@@ -17994,19 +18021,19 @@
     </row>
     <row r="262" spans="1:19">
       <c r="A262" s="9" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="D262" s="7" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="E262" s="7" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="G262" s="10">
         <v>800</v>
@@ -18034,18 +18061,18 @@
         <v>1</v>
       </c>
       <c r="S262" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="263" spans="1:14">
       <c r="A263" s="3" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="F263" s="3">
         <v>500</v>
@@ -18075,13 +18102,13 @@
     </row>
     <row r="264" spans="1:14">
       <c r="A264" s="3" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="F264" s="3">
         <v>500</v>
@@ -18111,13 +18138,13 @@
     </row>
     <row r="265" spans="1:14">
       <c r="A265" s="3" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="F265" s="3">
         <v>500</v>
@@ -18147,13 +18174,13 @@
     </row>
     <row r="266" spans="1:14">
       <c r="A266" s="3" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="F266" s="3">
         <v>500</v>
@@ -18183,13 +18210,13 @@
     </row>
     <row r="267" spans="1:14">
       <c r="A267" s="3" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="F267" s="3">
         <v>1000</v>
@@ -18216,13 +18243,13 @@
     </row>
     <row r="268" spans="1:14">
       <c r="A268" s="3" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="F268" s="3">
         <v>1300</v>
@@ -18249,13 +18276,13 @@
     </row>
     <row r="269" spans="1:14">
       <c r="A269" s="3" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="F269" s="3">
         <v>500</v>
@@ -18282,13 +18309,13 @@
     </row>
     <row r="271" spans="1:12">
       <c r="A271" s="11" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="F271" s="3">
         <v>50</v>
@@ -18312,13 +18339,13 @@
     </row>
     <row r="272" spans="1:12">
       <c r="A272" s="11" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="F272" s="3">
         <v>700</v>
@@ -18342,13 +18369,13 @@
     </row>
     <row r="273" spans="1:12">
       <c r="A273" s="11" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="F273" s="3">
         <v>1500</v>
@@ -18372,13 +18399,13 @@
     </row>
     <row r="274" spans="1:12">
       <c r="A274" s="11" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F274" s="3">
         <v>3700</v>
@@ -18402,13 +18429,13 @@
     </row>
     <row r="275" spans="1:12">
       <c r="A275" s="11" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="F275" s="3">
         <v>3000</v>
@@ -18432,13 +18459,13 @@
     </row>
     <row r="276" spans="1:12">
       <c r="A276" s="11" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="F276" s="3">
         <v>1000</v>
@@ -18462,13 +18489,13 @@
     </row>
     <row r="277" spans="1:12">
       <c r="A277" s="11" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F277" s="3">
         <v>4000</v>
@@ -18492,6 +18519,9 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AD277" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="15">
+      <filters blank="1"/>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18521,104 +18551,104 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
     </row>
   </sheetData>

--- a/MiscInfo.xlsx
+++ b/MiscInfo.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="904">
   <si>
     <t>Pool Melee = Pool Melee 2</t>
   </si>
@@ -1727,6 +1727,9 @@
     <t>ui_prop_melee_machete_name</t>
   </si>
   <si>
+    <t>21152383-6d79-436c-b359-0f8b4f5ed4a0</t>
+  </si>
+  <si>
     <t>ui_prop_melee_amputationknife_name</t>
   </si>
   <si>
@@ -1742,6 +1745,9 @@
     <t>009FA164CD4DDF64</t>
   </si>
   <si>
+    <t>Saber</t>
+  </si>
+  <si>
     <t>ui_prop_melee_combat_knife_name</t>
   </si>
   <si>
@@ -1778,6 +1784,9 @@
     <t>ui_prop_melee_sabre_name</t>
   </si>
   <si>
+    <t>94f52181-b9ec-4363-baef-d53b4e424b74</t>
+  </si>
+  <si>
     <t>ui_prop_melee_jungle_machete_name</t>
   </si>
   <si>
@@ -1868,7 +1877,7 @@
     <t>ui_prop_melee_tanto_name</t>
   </si>
   <si>
-    <t>Also Knife</t>
+    <t>9488fa1e-10e1-49c9-bb24-6635d2e5bd49</t>
   </si>
   <si>
     <t>ui_prop_melee_katana_white_ninja_name</t>
@@ -2432,7 +2441,10 @@
     <t>ba5c5c48-3d2e-4d4d-9dbe-f57b95200b1a</t>
   </si>
   <si>
-    <t>Bomb-Lethal</t>
+    <t>Bomb-Lethal-Proximity</t>
+  </si>
+  <si>
+    <t>Recognized by Game</t>
   </si>
   <si>
     <t>ui_prop_device_proximity_explosive_s3_name</t>
@@ -2453,6 +2465,9 @@
     <t>7488229b-3fa8-4539-90ba-a7bf65798568</t>
   </si>
   <si>
+    <t>Bomb-Lethal-Remote</t>
+  </si>
+  <si>
     <t>ui_prop_explosive_remote_explosive_name</t>
   </si>
   <si>
@@ -2495,6 +2510,9 @@
     <t>3f9cf03f-b84f-4419-b831-4704cff9775c</t>
   </si>
   <si>
+    <t>Bomb-Lethal-Instant</t>
+  </si>
+  <si>
     <t>ui_prop_explosive_pen_sambuca_name</t>
   </si>
   <si>
@@ -2625,6 +2643,60 @@
   </si>
   <si>
     <t>351c144c-8687-426a-a6f0-c4abd7021062</t>
+  </si>
+  <si>
+    <t>ui_prop_device_napoleonfigure_name</t>
+  </si>
+  <si>
+    <t>0a5bebc8-0148-4745-90b2-f54b3c71116c</t>
+  </si>
+  <si>
+    <t>ui_prop_device_letterbomb_name</t>
+  </si>
+  <si>
+    <t>30fa1ade-386f-49b7-bddd-a23cd912611d</t>
+  </si>
+  <si>
+    <t>ui_prop_device_makeshift_remote_explosive_name</t>
+  </si>
+  <si>
+    <t>8f1bae41-3570-40cc-be87-77cb6a4af86c</t>
+  </si>
+  <si>
+    <t>ui_prop_device_remote_explosive_s2_name</t>
+  </si>
+  <si>
+    <t>8bde9428-eb24-41e1-85fd-9a5a82dd81d7</t>
+  </si>
+  <si>
+    <t>ui_prop_device_ica_modular_remote_explosive_name</t>
+  </si>
+  <si>
+    <t>7d0c107e-4279-4fda-a7e2-77359271cb9a</t>
+  </si>
+  <si>
+    <t>ui_prop_carbomb_flamingo_name</t>
+  </si>
+  <si>
+    <t>53284129-c50a-47a7-9efa-caa3b7503826</t>
+  </si>
+  <si>
+    <t>ui_prop_device_ica_semtex_remote_explosive_name</t>
+  </si>
+  <si>
+    <t>3dbbbb5e-61a7-4cae-8df0-0e911e744dca</t>
+  </si>
+  <si>
+    <t>ui_prop_device_ica_c4_remote_explosive_name</t>
+  </si>
+  <si>
+    <t>ccdd6689-092d-49b2-85f8-416a02e25566</t>
+  </si>
+  <si>
+    <t>ui_prop_device_actionfigure_proximity_explosive_name</t>
+  </si>
+  <si>
+    <t>3fc1a8f8-f8fc-422e-884a-730ca9491737</t>
   </si>
   <si>
     <t>fa63018a-59c8-4468-9bc7-bcfae65c5d7e</t>
@@ -5839,14 +5911,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AD277"/>
+  <dimension ref="A1:AD287"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P90" sqref="P90"/>
+      <selection pane="bottomRight" activeCell="B187" sqref="B187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -5854,7 +5926,7 @@
     <col min="1" max="1" width="65.2545454545455" style="3" customWidth="1"/>
     <col min="2" max="2" width="41" style="3" customWidth="1"/>
     <col min="3" max="4" width="18.5454545454545" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.8181818181818" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.1818181818182" style="3" customWidth="1"/>
     <col min="6" max="8" width="14" style="3" customWidth="1"/>
     <col min="9" max="9" width="7.54545454545455" style="3" customWidth="1"/>
     <col min="10" max="10" width="10.6363636363636" style="3" customWidth="1"/>
@@ -5862,11 +5934,11 @@
     <col min="12" max="12" width="7.54545454545455" style="3" customWidth="1"/>
     <col min="13" max="13" width="6.54545454545455" style="3" customWidth="1"/>
     <col min="14" max="14" width="10.6363636363636" style="3" customWidth="1"/>
-    <col min="15" max="15" width="18.5454545454545" style="3" customWidth="1"/>
-    <col min="16" max="16" width="6.54545454545455" style="4" customWidth="1"/>
-    <col min="17" max="17" width="7.54545454545455" style="5" customWidth="1"/>
-    <col min="18" max="18" width="7.54545454545455" style="6" customWidth="1"/>
-    <col min="19" max="19" width="9.54545454545454" style="7" customWidth="1"/>
+    <col min="15" max="15" width="18.5454545454545" style="3" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.54545454545455" style="4" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="7.54545454545455" style="5" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="7.54545454545455" style="6" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9.54545454545454" style="7" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="26.3636363636364" style="3" customWidth="1"/>
     <col min="21" max="21" width="8.72727272727273" style="3"/>
     <col min="22" max="22" width="15.1818181818182" style="3" customWidth="1"/>
@@ -6543,7 +6615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" hidden="1" spans="1:18">
       <c r="A14" s="3" t="s">
         <v>233</v>
       </c>
@@ -9612,7 +9684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" hidden="1" spans="1:18">
       <c r="A78" s="3" t="s">
         <v>363</v>
       </c>
@@ -10186,7 +10258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" hidden="1" spans="1:18">
       <c r="A90" s="8" t="s">
         <v>388</v>
       </c>
@@ -10464,7 +10536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" hidden="1" spans="1:18">
       <c r="A96" s="3" t="s">
         <v>401</v>
       </c>
@@ -10501,6 +10573,9 @@
       </c>
       <c r="N96" s="3" t="b">
         <v>1</v>
+      </c>
+      <c r="P96" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="Q96" s="5" t="b">
         <v>1</v>
@@ -13028,7 +13103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" hidden="1" spans="1:18">
+    <row r="148" spans="1:18">
       <c r="A148" s="3" t="s">
         <v>537</v>
       </c>
@@ -13074,7 +13149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" hidden="1" spans="1:18">
+    <row r="149" spans="1:18">
       <c r="A149" s="3" t="s">
         <v>539</v>
       </c>
@@ -13120,7 +13195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" hidden="1" spans="1:20">
+    <row r="150" spans="1:20">
       <c r="A150" s="9" t="s">
         <v>540</v>
       </c>
@@ -13174,7 +13249,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="151" hidden="1" spans="1:20">
+    <row r="151" spans="1:20">
       <c r="A151" s="9" t="s">
         <v>545</v>
       </c>
@@ -13231,7 +13306,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="152" hidden="1" spans="1:20">
+    <row r="152" spans="1:20">
       <c r="A152" s="9" t="s">
         <v>549</v>
       </c>
@@ -13285,7 +13360,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="153" hidden="1" spans="1:18">
+    <row r="153" spans="1:18">
       <c r="A153" s="3" t="s">
         <v>554</v>
       </c>
@@ -13331,7 +13406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" hidden="1" spans="1:20">
+    <row r="154" spans="1:20">
       <c r="A154" s="9" t="s">
         <v>555</v>
       </c>
@@ -13388,7 +13463,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="155" hidden="1" spans="1:18">
+    <row r="155" spans="1:18">
       <c r="A155" s="3" t="s">
         <v>559</v>
       </c>
@@ -13434,11 +13509,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" hidden="1" spans="1:18">
+    <row r="156" spans="1:18">
       <c r="A156" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="B156" s="7"/>
+      <c r="B156" s="7" t="s">
+        <v>562</v>
+      </c>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7" t="s">
@@ -13480,9 +13557,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" hidden="1" spans="1:18">
+    <row r="157" spans="1:18">
       <c r="A157" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
@@ -13528,19 +13605,19 @@
     </row>
     <row r="158" hidden="1" spans="1:19">
       <c r="A158" s="9" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="G158" s="3">
         <v>3300</v>
@@ -13577,18 +13654,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="159" hidden="1" spans="1:19">
+    <row r="159" spans="1:19">
       <c r="A159" s="9" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E159" s="7" t="s">
         <v>560</v>
@@ -13631,9 +13708,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="160" hidden="1" spans="1:18">
+    <row r="160" spans="1:18">
       <c r="A160" s="3" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
@@ -13677,18 +13754,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" hidden="1" spans="1:19">
+    <row r="161" spans="1:19">
       <c r="A161" s="9" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E161" s="7" t="s">
         <v>560</v>
@@ -13728,9 +13805,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="162" hidden="1" spans="1:18">
+    <row r="162" spans="1:18">
       <c r="A162" s="3" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -13774,9 +13851,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" hidden="1" spans="1:18">
+    <row r="163" spans="1:18">
       <c r="A163" s="3" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
@@ -13822,13 +13899,15 @@
     </row>
     <row r="164" hidden="1" spans="1:18">
       <c r="A164" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="B164" s="7"/>
+        <v>580</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>581</v>
+      </c>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="F164" s="7">
         <v>11200</v>
@@ -13866,18 +13945,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" hidden="1" spans="1:20">
+    <row r="165" spans="1:20">
       <c r="A165" s="9" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="E165" s="7" t="s">
         <v>560</v>
@@ -13920,21 +13999,21 @@
         <v>544</v>
       </c>
     </row>
-    <row r="166" spans="1:19">
+    <row r="166" hidden="1" spans="1:19">
       <c r="A166" s="9" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="G166" s="3">
         <v>11900</v>
@@ -13974,9 +14053,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" hidden="1" spans="1:18">
+    <row r="167" spans="1:18">
       <c r="A167" s="3" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
@@ -14020,9 +14099,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" hidden="1" spans="1:18">
+    <row r="168" spans="1:18">
       <c r="A168" s="3" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -14066,9 +14145,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" hidden="1" spans="1:18">
+    <row r="169" spans="1:18">
       <c r="A169" s="3" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
@@ -14112,9 +14191,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" hidden="1" spans="1:18">
+    <row r="170" spans="1:18">
       <c r="A170" s="3" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -14158,18 +14237,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" hidden="1" spans="1:19">
+    <row r="171" spans="1:19">
       <c r="A171" s="9" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B171" s="7" t="s">
         <v>179</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="E171" s="7" t="s">
         <v>560</v>
@@ -14209,18 +14288,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="172" hidden="1" spans="1:19">
+    <row r="172" spans="1:19">
       <c r="A172" s="9" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="E172" s="7" t="s">
         <v>560</v>
@@ -14266,9 +14345,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="173" hidden="1" spans="1:18">
+    <row r="173" spans="1:18">
       <c r="A173" s="3" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
@@ -14312,18 +14391,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" hidden="1" spans="1:20">
+    <row r="174" spans="1:20">
       <c r="A174" s="9" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="E174" s="7" t="s">
         <v>560</v>
@@ -14366,24 +14445,24 @@
         <v>27</v>
       </c>
       <c r="T174" s="3" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="175" hidden="1" spans="1:19">
       <c r="A175" s="9" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="G175" s="7">
         <v>24200</v>
@@ -14426,11 +14505,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="176" hidden="1" spans="1:20">
+    <row r="176" spans="1:18">
       <c r="A176" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="B176" s="7"/>
+        <v>611</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>612</v>
+      </c>
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
       <c r="E176" s="7" t="s">
@@ -14471,22 +14552,19 @@
       <c r="R176" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="T176" s="3" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="177" hidden="1" spans="1:20">
+    </row>
+    <row r="177" spans="1:20">
       <c r="A177" s="9" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="E177" s="7" t="s">
         <v>130</v>
@@ -14535,9 +14613,9 @@
         <v>544</v>
       </c>
     </row>
-    <row r="178" hidden="1" spans="1:18">
+    <row r="178" spans="1:18">
       <c r="A178" s="3" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
@@ -14581,9 +14659,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" hidden="1" spans="1:18">
+    <row r="179" spans="1:18">
       <c r="A179" s="3" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
@@ -14627,9 +14705,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" hidden="1" spans="1:18">
+    <row r="180" spans="1:18">
       <c r="A180" s="3" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
@@ -14673,9 +14751,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" hidden="1" spans="1:18">
+    <row r="181" spans="1:18">
       <c r="A181" s="3" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
@@ -14719,18 +14797,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" hidden="1" spans="1:20">
+    <row r="182" spans="1:20">
       <c r="A182" s="9" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="E182" s="7" t="s">
         <v>130</v>
@@ -14776,15 +14854,15 @@
         <v>544</v>
       </c>
     </row>
-    <row r="183" hidden="1" spans="1:18">
+    <row r="183" spans="1:18">
       <c r="A183" s="3" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="F183" s="7">
         <v>2000</v>
@@ -14822,15 +14900,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" hidden="1" spans="1:18">
+    <row r="184" spans="1:18">
       <c r="A184" s="3" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="F184" s="7">
         <v>7500</v>
@@ -14868,15 +14946,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" hidden="1" spans="1:18">
+    <row r="185" spans="1:18">
       <c r="A185" s="3" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="F185" s="7">
         <v>8600</v>
@@ -14914,15 +14992,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" hidden="1" spans="1:18">
+    <row r="186" spans="1:18">
       <c r="A186" s="3" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="F186" s="7">
         <v>10000</v>
@@ -14960,21 +15038,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" hidden="1" spans="1:20">
+    <row r="187" spans="1:20">
       <c r="A187" s="9" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="G187" s="3">
         <v>12100</v>
@@ -15019,13 +15097,13 @@
     </row>
     <row r="188" hidden="1" spans="1:18">
       <c r="A188" s="3" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="F188" s="7">
         <v>2000</v>
@@ -15065,19 +15143,19 @@
     </row>
     <row r="189" hidden="1" spans="1:19">
       <c r="A189" s="9" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="C189" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="E189" s="7" t="s">
         <v>635</v>
-      </c>
-      <c r="D189" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="E189" s="7" t="s">
-        <v>632</v>
       </c>
       <c r="G189" s="3">
         <v>2500</v>
@@ -15116,13 +15194,13 @@
     </row>
     <row r="190" hidden="1" spans="1:18">
       <c r="A190" s="3" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="F190" s="7">
         <v>3000</v>
@@ -15162,19 +15240,19 @@
     </row>
     <row r="191" hidden="1" spans="1:19">
       <c r="A191" s="9" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="G191" s="3">
         <v>3100</v>
@@ -15216,19 +15294,19 @@
     </row>
     <row r="192" hidden="1" spans="1:19">
       <c r="A192" s="9" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="G192" s="3">
         <v>4400</v>
@@ -15270,13 +15348,13 @@
     </row>
     <row r="193" hidden="1" spans="1:18">
       <c r="A193" s="3" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="F193" s="7">
         <v>5500</v>
@@ -15316,13 +15394,13 @@
     </row>
     <row r="194" hidden="1" spans="1:18">
       <c r="A194" s="3" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="F194" s="7">
         <v>6300</v>
@@ -15362,19 +15440,19 @@
     </row>
     <row r="195" hidden="1" spans="1:19">
       <c r="A195" s="9" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="G195" s="3">
         <v>6450</v>
@@ -15416,13 +15494,13 @@
     </row>
     <row r="196" hidden="1" spans="1:18">
       <c r="A196" s="3" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="F196" s="7">
         <v>6600</v>
@@ -15462,19 +15540,19 @@
     </row>
     <row r="197" hidden="1" spans="1:20">
       <c r="A197" s="9" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="G197" s="3">
         <v>8600</v>
@@ -15514,20 +15592,20 @@
         <v>34</v>
       </c>
       <c r="T197" s="3" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="198" hidden="1" spans="1:20">
       <c r="A198" s="8" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="F198" s="7">
         <v>15000</v>
@@ -15565,24 +15643,24 @@
         <v>0</v>
       </c>
       <c r="T198" s="3" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="199" hidden="1" spans="1:20">
       <c r="A199" s="9" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="G199" s="3">
         <v>17200</v>
@@ -15622,24 +15700,24 @@
         <v>34</v>
       </c>
       <c r="T199" s="3" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="200" hidden="1" spans="1:19">
       <c r="A200" s="9" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="E200" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="G200" s="3">
         <v>32800</v>
@@ -15681,19 +15759,19 @@
     </row>
     <row r="201" hidden="1" spans="1:20">
       <c r="A201" s="9" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="E201" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="G201" s="7">
         <v>39999</v>
@@ -15736,24 +15814,24 @@
         <v>39</v>
       </c>
       <c r="T201" s="3" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
     </row>
     <row r="202" hidden="1" spans="1:20">
       <c r="A202" s="9" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="G202" s="7">
         <v>100000</v>
@@ -15790,24 +15868,24 @@
         <v>39</v>
       </c>
       <c r="T202" s="3" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="203" hidden="1" spans="1:19">
       <c r="A203" s="9" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="G203" s="7">
         <v>19800</v>
@@ -15849,15 +15927,15 @@
     </row>
     <row r="204" hidden="1" spans="1:18">
       <c r="A204" s="8" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="F204" s="7">
         <v>30000</v>
@@ -15897,15 +15975,15 @@
     </row>
     <row r="205" hidden="1" spans="1:18">
       <c r="A205" s="8" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
       <c r="E205" s="7" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="F205" s="7">
         <v>5000</v>
@@ -15945,19 +16023,19 @@
     </row>
     <row r="206" hidden="1" spans="1:19">
       <c r="A206" s="9" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="C206" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="E206" s="7" t="s">
         <v>691</v>
-      </c>
-      <c r="D206" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="E206" s="7" t="s">
-        <v>688</v>
       </c>
       <c r="G206" s="3">
         <v>9999</v>
@@ -15999,19 +16077,19 @@
     </row>
     <row r="207" hidden="1" spans="1:19">
       <c r="A207" s="9" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="G207" s="3">
         <v>999999999</v>
@@ -16051,15 +16129,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="210" spans="1:14">
+    <row r="208" hidden="1"/>
+    <row r="209" hidden="1"/>
+    <row r="210" hidden="1" spans="1:14">
       <c r="A210" s="3" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="F210" s="3">
         <v>500</v>
@@ -16087,15 +16167,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:14">
+    <row r="211" hidden="1" spans="1:14">
       <c r="A211" s="3" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="F211" s="3">
         <v>500</v>
@@ -16123,15 +16203,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:14">
+    <row r="212" hidden="1" spans="1:14">
       <c r="A212" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="E212" s="3" t="s">
         <v>702</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>699</v>
       </c>
       <c r="F212" s="3">
         <v>500</v>
@@ -16159,15 +16239,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:14">
+    <row r="213" hidden="1" spans="1:14">
       <c r="A213" s="3" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="F213" s="3">
         <v>500</v>
@@ -16195,15 +16275,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:14">
+    <row r="214" hidden="1" spans="1:14">
       <c r="A214" s="3" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="F214" s="3">
         <v>500</v>
@@ -16231,15 +16311,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:14">
+    <row r="215" hidden="1" spans="1:14">
       <c r="A215" s="3" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="F215" s="3">
         <v>500</v>
@@ -16267,21 +16347,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:19">
+    <row r="216" hidden="1" spans="1:19">
       <c r="A216" s="9" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="G216" s="3">
         <v>500</v>
@@ -16315,15 +16395,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="217" spans="1:14">
+    <row r="217" hidden="1" spans="1:14">
       <c r="A217" s="3" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="F217" s="3">
         <v>500</v>
@@ -16351,15 +16431,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:14">
+    <row r="218" hidden="1" spans="1:14">
       <c r="A218" s="3" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="F218" s="3">
         <v>500</v>
@@ -16387,15 +16467,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:14">
+    <row r="219" hidden="1" spans="1:14">
       <c r="A219" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="E219" s="3" t="s">
         <v>719</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="E219" s="3" t="s">
-        <v>716</v>
       </c>
       <c r="F219" s="3">
         <v>500</v>
@@ -16423,15 +16503,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:14">
+    <row r="220" hidden="1" spans="1:14">
       <c r="A220" s="3" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="F220" s="3">
         <v>500</v>
@@ -16459,15 +16539,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:14">
+    <row r="221" hidden="1" spans="1:14">
       <c r="A221" s="3" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="F221" s="3">
         <v>500</v>
@@ -16495,15 +16575,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:14">
+    <row r="222" hidden="1" spans="1:14">
       <c r="A222" s="3" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="F222" s="3">
         <v>500</v>
@@ -16531,21 +16611,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:19">
+    <row r="223" hidden="1" spans="1:19">
       <c r="A223" s="9" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="G223" s="7">
         <v>1500</v>
@@ -16579,15 +16659,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="224" spans="1:14">
+    <row r="224" hidden="1" spans="1:14">
       <c r="A224" s="3" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="F224" s="3">
         <v>500</v>
@@ -16615,15 +16695,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:14">
+    <row r="225" hidden="1" spans="1:14">
       <c r="A225" s="3" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="F225" s="3">
         <v>500</v>
@@ -16651,21 +16731,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:19">
+    <row r="226" hidden="1" spans="1:19">
       <c r="A226" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="D226" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="E226" s="3" t="s">
         <v>736</v>
-      </c>
-      <c r="B226" s="7" t="s">
-        <v>737</v>
-      </c>
-      <c r="C226" s="7" t="s">
-        <v>738</v>
-      </c>
-      <c r="D226" s="7" t="s">
-        <v>739</v>
-      </c>
-      <c r="E226" s="3" t="s">
-        <v>733</v>
       </c>
       <c r="G226" s="7">
         <v>800</v>
@@ -16699,15 +16779,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="227" spans="1:14">
+    <row r="227" hidden="1" spans="1:14">
       <c r="A227" s="3" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="F227" s="3">
         <v>500</v>
@@ -16735,21 +16815,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:19">
+    <row r="228" hidden="1" spans="1:19">
       <c r="A228" s="9" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="G228" s="7">
         <v>1000</v>
@@ -16783,15 +16863,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="229" spans="1:14">
+    <row r="229" hidden="1" spans="1:14">
       <c r="A229" s="3" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="F229" s="3">
         <v>500</v>
@@ -16819,15 +16899,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:14">
+    <row r="230" hidden="1" spans="1:14">
       <c r="A230" s="3" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="F230" s="3">
         <v>500</v>
@@ -16855,15 +16935,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:14">
+    <row r="231" hidden="1" spans="1:14">
       <c r="A231" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="E231" s="3" t="s">
         <v>751</v>
-      </c>
-      <c r="B231" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="E231" s="3" t="s">
-        <v>748</v>
       </c>
       <c r="F231" s="3">
         <v>500</v>
@@ -16891,15 +16971,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:14">
+    <row r="232" hidden="1" spans="1:14">
       <c r="A232" s="3" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="F232" s="3">
         <v>500</v>
@@ -16927,15 +17007,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:14">
+    <row r="233" hidden="1" spans="1:14">
       <c r="A233" s="3" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="F233" s="3">
         <v>600</v>
@@ -16963,15 +17043,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:14">
+    <row r="234" hidden="1" spans="1:14">
       <c r="A234" s="3" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="F234" s="3">
         <v>500</v>
@@ -16999,15 +17079,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:14">
+    <row r="235" hidden="1" spans="1:14">
       <c r="A235" s="3" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="F235" s="3">
         <v>500</v>
@@ -17035,15 +17115,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:14">
+    <row r="236" hidden="1" spans="1:14">
       <c r="A236" s="3" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="F236" s="3">
         <v>500</v>
@@ -17071,15 +17151,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:14">
+    <row r="237" hidden="1" spans="1:14">
       <c r="A237" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E237" s="3" t="s">
         <v>766</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>767</v>
-      </c>
-      <c r="E237" s="3" t="s">
-        <v>763</v>
       </c>
       <c r="F237" s="3">
         <v>500</v>
@@ -17107,15 +17187,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:14">
+    <row r="238" hidden="1" spans="1:14">
       <c r="A238" s="3" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="F238" s="3">
         <v>500</v>
@@ -17143,15 +17223,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:14">
+    <row r="239" hidden="1" spans="1:14">
       <c r="A239" s="3" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="F239" s="3">
         <v>500</v>
@@ -17179,15 +17259,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:14">
+    <row r="240" hidden="1" spans="1:14">
       <c r="A240" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="E240" s="3" t="s">
         <v>773</v>
-      </c>
-      <c r="B240" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="E240" s="3" t="s">
-        <v>770</v>
       </c>
       <c r="F240" s="3">
         <v>500</v>
@@ -17215,15 +17295,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:14">
+    <row r="241" hidden="1" spans="1:14">
       <c r="A241" s="3" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="F241" s="3">
         <v>500</v>
@@ -17251,15 +17331,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:14">
+    <row r="242" hidden="1" spans="1:14">
       <c r="A242" s="3" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="F242" s="3">
         <v>500</v>
@@ -17287,15 +17367,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:14">
+    <row r="243" hidden="1" spans="1:14">
       <c r="A243" s="3" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="F243" s="3">
         <v>500</v>
@@ -17323,15 +17403,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:14">
+    <row r="244" hidden="1" spans="1:14">
       <c r="A244" s="3" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="F244" s="3">
         <v>500</v>
@@ -17359,15 +17439,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:14">
+    <row r="245" hidden="1" spans="1:14">
       <c r="A245" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="E245" s="3" t="s">
         <v>784</v>
-      </c>
-      <c r="B245" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="E245" s="3" t="s">
-        <v>781</v>
       </c>
       <c r="F245" s="3">
         <v>500</v>
@@ -17395,21 +17475,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:19">
+    <row r="246" hidden="1" spans="1:19">
       <c r="A246" s="9" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="D246" s="7" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="E246" s="7" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="G246" s="7">
         <v>1000</v>
@@ -17443,21 +17523,21 @@
         <v>39</v>
       </c>
     </row>
-    <row r="247" spans="1:19">
+    <row r="247" hidden="1" spans="1:19">
       <c r="A247" s="9" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="D247" s="7" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="E247" s="7" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="G247" s="7">
         <v>1000</v>
@@ -17485,21 +17565,21 @@
         <v>1</v>
       </c>
       <c r="O247" s="3" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="S247" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="248" spans="1:14">
+    <row r="248" hidden="1" spans="1:20">
       <c r="A248" s="3" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="F248" s="3">
         <v>500</v>
@@ -17526,16 +17606,19 @@
       <c r="N248" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:14">
+      <c r="T248" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="249" hidden="1" spans="1:20">
       <c r="A249" s="3" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="F249" s="3">
         <v>500</v>
@@ -17562,16 +17645,19 @@
       <c r="N249" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:14">
+      <c r="T249" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="250" hidden="1" spans="1:20">
       <c r="A250" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="E250" s="3" t="s">
         <v>800</v>
-      </c>
-      <c r="B250" s="3" t="s">
-        <v>801</v>
-      </c>
-      <c r="E250" s="3" t="s">
-        <v>797</v>
       </c>
       <c r="F250" s="3">
         <v>500</v>
@@ -17598,16 +17684,19 @@
       <c r="N250" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:14">
+      <c r="T250" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="251" spans="1:20">
       <c r="A251" s="3" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>797</v>
+        <v>808</v>
       </c>
       <c r="F251" s="3">
         <v>500</v>
@@ -17634,16 +17723,19 @@
       <c r="N251" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:14">
+      <c r="T251" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20">
       <c r="A252" s="3" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>797</v>
+        <v>808</v>
       </c>
       <c r="F252" s="3">
         <v>500</v>
@@ -17670,16 +17762,19 @@
       <c r="N252" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:14">
+      <c r="T252" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20">
       <c r="A253" s="3" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>797</v>
+        <v>808</v>
       </c>
       <c r="F253" s="3">
         <v>500</v>
@@ -17706,16 +17801,19 @@
       <c r="N253" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:14">
+      <c r="T253" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="254" spans="1:20">
       <c r="A254" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="E254" s="3" t="s">
         <v>808</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="E254" s="3" t="s">
-        <v>797</v>
       </c>
       <c r="F254" s="3">
         <v>500</v>
@@ -17742,22 +17840,25 @@
       <c r="N254" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:19">
+      <c r="T254" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="255" spans="1:20">
       <c r="A255" s="9" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="D255" s="7" t="s">
-        <v>813</v>
-      </c>
-      <c r="E255" s="7" t="s">
-        <v>797</v>
+        <v>818</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>808</v>
       </c>
       <c r="G255" s="7">
         <v>1000</v>
@@ -17790,16 +17891,19 @@
       <c r="S255" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="256" spans="1:14">
+      <c r="T255" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="256" spans="1:20">
       <c r="A256" s="3" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>797</v>
+        <v>808</v>
       </c>
       <c r="F256" s="3">
         <v>500</v>
@@ -17826,16 +17930,19 @@
       <c r="N256" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:14">
+      <c r="T256" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="257" hidden="1" spans="1:14">
       <c r="A257" s="3" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>797</v>
+        <v>823</v>
       </c>
       <c r="F257" s="3">
         <v>500</v>
@@ -17863,21 +17970,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:19">
+    <row r="258" hidden="1" spans="1:19">
       <c r="A258" s="9" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="D258" s="7" t="s">
-        <v>821</v>
-      </c>
-      <c r="E258" s="7" t="s">
-        <v>797</v>
+        <v>827</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>823</v>
       </c>
       <c r="G258" s="7">
         <v>1000</v>
@@ -17905,21 +18012,21 @@
         <v>1</v>
       </c>
       <c r="O258" s="3" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="S258" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="259" spans="1:14">
+    <row r="259" spans="1:20">
       <c r="A259" s="3" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>797</v>
+        <v>808</v>
       </c>
       <c r="F259" s="3">
         <v>500</v>
@@ -17946,16 +18053,19 @@
       <c r="N259" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:14">
+      <c r="T259" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="260" hidden="1" spans="1:14">
       <c r="A260" s="3" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>797</v>
+        <v>823</v>
       </c>
       <c r="F260" s="3">
         <v>500</v>
@@ -17983,15 +18093,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:14">
+    <row r="261" hidden="1" spans="1:20">
       <c r="A261" s="3" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="F261" s="3">
         <v>500</v>
@@ -18018,22 +18128,25 @@
       <c r="N261" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:19">
+      <c r="T261" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="262" spans="1:20">
       <c r="A262" s="9" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="D262" s="7" t="s">
-        <v>831</v>
-      </c>
-      <c r="E262" s="7" t="s">
-        <v>797</v>
+        <v>837</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>808</v>
       </c>
       <c r="G262" s="10">
         <v>800</v>
@@ -18063,16 +18176,19 @@
       <c r="S262" s="7" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="263" spans="1:14">
+      <c r="T262" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="263" hidden="1" spans="1:20">
       <c r="A263" s="3" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="F263" s="3">
         <v>500</v>
@@ -18099,16 +18215,19 @@
       <c r="N263" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:14">
+      <c r="T263" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="264" spans="1:20">
       <c r="A264" s="3" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>797</v>
+        <v>808</v>
       </c>
       <c r="F264" s="3">
         <v>500</v>
@@ -18135,16 +18254,19 @@
       <c r="N264" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:14">
+      <c r="T264" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="265" spans="1:20">
       <c r="A265" s="3" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>797</v>
+        <v>808</v>
       </c>
       <c r="F265" s="3">
         <v>500</v>
@@ -18171,16 +18293,19 @@
       <c r="N265" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:14">
+      <c r="T265" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="266" spans="1:20">
       <c r="A266" s="3" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>797</v>
+        <v>808</v>
       </c>
       <c r="F266" s="3">
         <v>500</v>
@@ -18207,16 +18332,19 @@
       <c r="N266" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:14">
+      <c r="T266" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="267" hidden="1" spans="1:14">
       <c r="A267" s="3" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="F267" s="3">
         <v>1000</v>
@@ -18241,15 +18369,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:14">
+    <row r="268" hidden="1" spans="1:14">
       <c r="A268" s="3" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="F268" s="3">
         <v>1300</v>
@@ -18274,15 +18402,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:14">
+    <row r="269" hidden="1" spans="1:14">
       <c r="A269" s="3" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="F269" s="3">
         <v>500</v>
@@ -18307,15 +18435,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:12">
+    <row r="270" hidden="1"/>
+    <row r="271" hidden="1" spans="1:12">
       <c r="A271" s="11" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="F271" s="3">
         <v>50</v>
@@ -18337,15 +18466,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:12">
+    <row r="272" hidden="1" spans="1:12">
       <c r="A272" s="11" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="F272" s="3">
         <v>700</v>
@@ -18367,15 +18496,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:12">
+    <row r="273" hidden="1" spans="1:12">
       <c r="A273" s="11" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="F273" s="3">
         <v>1500</v>
@@ -18397,12 +18526,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:12">
+    <row r="274" hidden="1" spans="1:12">
       <c r="A274" s="11" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="E274" s="3" t="s">
         <v>333</v>
@@ -18427,15 +18556,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:12">
+    <row r="275" hidden="1" spans="1:12">
       <c r="A275" s="11" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="F275" s="3">
         <v>3000</v>
@@ -18459,10 +18588,10 @@
     </row>
     <row r="276" spans="1:12">
       <c r="A276" s="11" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="E276" s="3" t="s">
         <v>553</v>
@@ -18487,12 +18616,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:12">
+    <row r="277" hidden="1" spans="1:12">
       <c r="A277" s="11" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="E277" s="3" t="s">
         <v>333</v>
@@ -18517,10 +18646,143 @@
         <v>1</v>
       </c>
     </row>
+    <row r="279" spans="1:20">
+      <c r="A279" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="T279" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="280" spans="1:20">
+      <c r="A280" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="T280" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="281" spans="1:20">
+      <c r="A281" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="T281" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="282" spans="1:20">
+      <c r="A282" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="T282" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="283" spans="1:20">
+      <c r="A283" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="T283" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="284" spans="1:20">
+      <c r="A284" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="T284" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="285" spans="1:20">
+      <c r="A285" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="T285" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="286" spans="1:20">
+      <c r="A286" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="T286" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="287" spans="1:20">
+      <c r="A287" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="T287" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AD277" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="15">
-      <filters blank="1"/>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Katana"/>
+        <filter val="BaseballBat"/>
+        <filter val="Knife"/>
+        <filter val="Bomb-Lethal-Remote"/>
+        <filter val="IcePick"/>
+        <filter val="Shuriken"/>
+      </filters>
     </filterColumn>
     <extLst/>
   </autoFilter>
@@ -18551,36 +18813,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>862</v>
+        <v>886</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>863</v>
+        <v>887</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>864</v>
+        <v>888</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>865</v>
+        <v>889</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>866</v>
+        <v>890</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>867</v>
+        <v>891</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>868</v>
+        <v>892</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>869</v>
+        <v>893</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -18588,16 +18850,16 @@
         <v>442</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>870</v>
+        <v>894</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>871</v>
+        <v>895</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>872</v>
+        <v>896</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -18605,33 +18867,33 @@
         <v>469</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>873</v>
+        <v>897</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>874</v>
+        <v>898</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>865</v>
+        <v>889</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>875</v>
+        <v>899</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>876</v>
+        <v>900</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>877</v>
+        <v>901</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>869</v>
+        <v>893</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -18639,16 +18901,16 @@
         <v>474</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>878</v>
+        <v>902</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>879</v>
+        <v>903</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>872</v>
+        <v>896</v>
       </c>
     </row>
   </sheetData>
